--- a/xlsx/美国内战_intext.xlsx
+++ b/xlsx/美国内战_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="869">
   <si>
     <t>美国内战</t>
   </si>
@@ -29,13 +29,13 @@
     <t>宾夕凡尼亚州</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国内战</t>
+    <t>政策_政策_美国_美国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%A8%E5%A0%A1%E4%B9%8B%E5%BD%B9</t>
   </si>
   <si>
-    <t>蓋茨堡之役</t>
+    <t>盖茨堡之役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
+    <t>田纳西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%97%E9%83%A8</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BB%8D</t>
   </si>
   <si>
-    <t>北軍</t>
+    <t>北军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A5%B4%E9%9A%B6%E5%88%B6%E5%BA%A6</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E8%81%94%E7%9B%9F%E5%9B%BD</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
   </si>
   <si>
-    <t>亞伯拉罕·林肯</t>
+    <t>亚伯拉罕·林肯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E6%B8%A9%C2%B7M%C2%B7%E6%96%AF%E5%9D%A6%E9%A1%BF</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%C2%B7%E6%88%B4%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>傑佛遜·戴維斯</t>
+    <t>杰佛逊·戴维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7E%C2%B7%E6%9D%8E</t>
@@ -167,19 +167,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0%E5%91%BD%E5%90%8D</t>
   </si>
   <si>
-    <t>美國內戰命名</t>
+    <t>美国内战命名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>美國歷史</t>
+    <t>美国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E6%88%98</t>
@@ -191,19 +191,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E8%81%AF%E7%9B%9F%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅聯盟國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0%E8%B5%B7%E5%9B%A0</t>
   </si>
   <si>
-    <t>美國內戰起因</t>
+    <t>美国内战起因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0%E6%99%82%E9%96%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國內戰時間列表</t>
+    <t>美国内战时间列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%8F%8A%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%86%B3%E8%AE%AE%E6%A1%88</t>
@@ -227,37 +224,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A5%E8%BF%AA%E9%81%9C</t>
   </si>
   <si>
-    <t>詹姆斯·麥迪遜</t>
+    <t>詹姆斯·麦迪逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>1812年戰爭</t>
+    <t>1812年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%A8%85</t>
   </si>
   <si>
-    <t>關稅</t>
+    <t>关税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>南卡羅萊那州</t>
+    <t>南卡罗莱那州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ordinance_of_Nullification</t>
@@ -275,19 +272,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E5%82%91%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>安德魯·傑克森</t>
+    <t>安德鲁·杰克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Northwest_Ordinance</t>
@@ -323,19 +320,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%E5%8F%94%E5%8F%94%E7%9A%84%E5%B0%8F%E5%B1%8B</t>
   </si>
   <si>
-    <t>湯姆叔叔的小屋</t>
+    <t>汤姆叔叔的小屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
   </si>
   <si>
-    <t>奴隸</t>
+    <t>奴隶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B7%9E</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%AD%90%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>君子協定</t>
+    <t>君子协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%A6%A5%E5%8D%8F</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>堪薩斯內布拉斯加法案</t>
+    <t>堪萨斯内布拉斯加法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8D%97</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8C%97</t>
@@ -443,19 +440,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E6%A5%AD%E8%A9%95%E8%AB%96</t>
   </si>
   <si>
-    <t>哈佛商業評論</t>
+    <t>哈佛商业评论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E6%A0%BC%E9%BB%A8</t>
   </si>
   <si>
-    <t>輝格黨</t>
+    <t>辉格党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美國最高法院</t>
+    <t>美国最高法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E4%B8%BB%E5%85%9A</t>
@@ -485,9 +482,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E5%A5%B4%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>廢奴主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -539,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P%C2%B7G%C2%B7T%C2%B7%E5%8D%9A%E9%9B%B7%E5%8A%A0%E5%BE%B7</t>
@@ -551,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%E9%A0%93%E6%B8%AF</t>
   </si>
   <si>
-    <t>查爾斯頓港</t>
+    <t>查尔斯顿港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%A7%86%E7%89%B9%E5%A0%A1</t>
   </si>
   <si>
-    <t>薩姆特堡</t>
+    <t>萨姆特堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%86%85%E6%88%98</t>
@@ -569,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>南卡羅萊納州</t>
+    <t>南卡罗莱纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -581,19 +575,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>阿拉巴馬州</t>
+    <t>阿拉巴马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
@@ -605,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%A7%86%E7%89%B9%E5%A0%A1%E6%88%98%E5%BD%B9</t>
@@ -617,25 +611,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅萊納州</t>
+    <t>北卡罗莱纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%E7%93%A6%E5%B7%9E</t>
@@ -647,13 +638,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>奴隸制度</t>
+    <t>奴隶制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94</t>
@@ -665,13 +656,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7C%C2%B7%E5%B8%83%E9%9B%B7%E8%82%AF%E9%87%8C%E5%A5%87</t>
@@ -683,19 +674,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>聯邦政府</t>
+    <t>联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1861%E5%B9%B4%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9%E6%9A%B4%E5%8B%95</t>
   </si>
   <si>
-    <t>1861年巴爾的摩暴動</t>
+    <t>1861年巴尔的摩暴动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E5%B8%82</t>
   </si>
   <si>
-    <t>傑佛遜市</t>
+    <t>杰佛逊市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E4%BA%A1%E6%94%BF%E5%BA%9C</t>
@@ -707,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C</t>
   </si>
   <si>
-    <t>密蘇里</t>
+    <t>密苏里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E%E9%82%A6%E8%81%94%E6%94%BF%E5%BA%9C</t>
@@ -725,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%8F%B2_(%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E)</t>
@@ -737,37 +728,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9_(%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙哥馬利 (阿拉巴馬州)</t>
+    <t>蒙哥马利 (阿拉巴马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
+    <t>华盛顿特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E6%9D%A1%E4%BE%8B</t>
@@ -785,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%A5%AD</t>
   </si>
   <si>
-    <t>物業</t>
+    <t>物业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E6%9C%89%E6%9D%83</t>
@@ -797,13 +788,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%85%B5</t>
@@ -815,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅萊那州</t>
+    <t>北卡罗莱那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A3%AB%E6%BB%A1_(%E7%BB%B4%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -833,31 +824,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%8C%E8%A5%BF%E6%96%AF%C2%B7%E6%A0%BC%E8%98%AD%E7%89%B9</t>
   </si>
   <si>
-    <t>尤里西斯·格蘭特</t>
+    <t>尤里西斯·格兰特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%E6%96%AF%E5%A0%A1_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>彼得斯堡 (維吉尼亞州)</t>
+    <t>彼得斯堡 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9F%92%E8%9B%87%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>蟒蛇計劃</t>
+    <t>蟒蛇计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E8%8F%B2%E7%88%BE%E5%BE%B7%C2%B7%E5%8F%B2%E8%80%83%E7%89%B9</t>
   </si>
   <si>
-    <t>溫菲爾德·史考特</t>
+    <t>温菲尔德·史考特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
@@ -869,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -881,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴哈馬</t>
+    <t>巴哈马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%B6%E6%80%A7%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
@@ -893,19 +884,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E7%94%B2%E8%89%A6</t>
   </si>
   <si>
-    <t>鐵甲艦</t>
+    <t>铁甲舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%99%AE%E9%A0%93%E9%8C%A8%E5%9C%B0%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>漢普頓錨地海戰</t>
+    <t>汉普顿锚地海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%8D%E8%96%A9%E6%96%AF_(%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬納薩斯 (弗吉尼亞州)</t>
+    <t>马纳萨斯 (弗吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%96%87%C2%B7%E9%BA%A6%E5%85%8B%E9%81%93%E5%B0%94</t>
@@ -917,31 +908,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B0%87</t>
   </si>
   <si>
-    <t>少將</t>
+    <t>少将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E9%A6%AC%E7%B4%8D%E6%B2%99%E6%96%AF%E4%B9%8B%E5%BD%B9</t>
   </si>
   <si>
-    <t>第一次馬納沙斯之役</t>
+    <t>第一次马纳沙斯之役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E5%A3%AB%C2%B7%E5%82%91%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>湯瑪士·傑克森</t>
+    <t>汤玛士·杰克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E9%BA%A5%E5%85%8B%E8%90%8A%E5%80%AB</t>
   </si>
   <si>
-    <t>喬治·麥克萊倫</t>
+    <t>乔治·麦克莱伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%A6%AC%E5%85%8B%E8%BB%8D%E5%9C%98</t>
   </si>
   <si>
-    <t>波多馬克軍團</t>
+    <t>波多马克军团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E9%9F%A6%E6%9D%B0%C2%B7%E5%93%88%E5%8B%92%E5%85%8B</t>
@@ -953,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E5%85%8B%E6%B2%B3_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>約克河 (維吉尼亞州)</t>
+    <t>约克河 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E6%B2%B3</t>
@@ -965,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>維吉尼亞半島</t>
+    <t>维吉尼亚半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E6%9D%BE%E4%B9%8B%E5%BD%B9</t>
@@ -977,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%9D%8E</t>
   </si>
   <si>
-    <t>羅伯特·李</t>
+    <t>罗伯特·李</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%9A%86%E5%8F%B2%E5%B4%94%E7%89%B9</t>
@@ -989,13 +980,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%A4%A9%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>七天戰役</t>
+    <t>七天战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>北維吉尼亞會戰</t>
+    <t>北维吉尼亚会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%89%9B%E5%A5%94%E6%B2%B3%E4%B9%8B%E5%BD%B9</t>
@@ -1007,13 +998,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B3%A2%E6%99%AE</t>
   </si>
   <si>
-    <t>約翰·波普</t>
+    <t>约翰·波普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E8%BB%8D%E5%9C%98</t>
   </si>
   <si>
-    <t>北維吉尼亞軍團</t>
+    <t>北维吉尼亚军团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%A9%AC%E5%85%8B%E6%B2%B3</t>
@@ -1031,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%E6%96%AF%E5%A0%A1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>弗雷德里克斯堡戰役</t>
+    <t>弗雷德里克斯堡战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E8%83%A1%E5%85%8B</t>
@@ -1043,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%A2%E6%96%AF%E5%8B%92%E6%96%AF%E7%B6%AD%E7%88%BE%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>錢斯勒斯維爾戰役</t>
+    <t>钱斯勒斯维尔战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E7%B1%B3%E5%BE%B7</t>
@@ -1055,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%85%8B%E7%89%B9%E8%A1%9D%E9%8B%92</t>
   </si>
   <si>
-    <t>皮克特衝鋒</t>
+    <t>皮克特冲锋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%85%8B%E6%96%AF%E5%A0%A1_(%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E)</t>
@@ -1067,19 +1058,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E8%A8%B1%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>納許維爾</t>
+    <t>纳许维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A7%E7%88%BE%E8%89%AF</t>
   </si>
   <si>
-    <t>新奧爾良</t>
+    <t>新奥尔良</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%8D%A1%E7%89%9F%E5%8A%A0%E6%88%98%E5%BD%B9</t>
@@ -1103,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0%E7%9A%84%E8%BD%89%E6%8D%A9%E9%BB%9E</t>
   </si>
   <si>
-    <t>美國內戰的轉捩點</t>
+    <t>美国内战的转捩点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -1115,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B</t>
@@ -1133,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E7%B6%AD%E6%96%AF%E6%95%A6_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>加爾維斯敦 (德克薩斯州)</t>
+    <t>加尔维斯敦 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B0%94%E6%96%87%E5%AE%97</t>
@@ -1145,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E6%9C%83</t>
   </si>
   <si>
-    <t>長老會</t>
+    <t>长老会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E7%90%86%E5%85%AC%E4%BC%9A</t>
@@ -1157,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>浸信會</t>
+    <t>浸信会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -1169,25 +1160,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第十四修正案</t>
+    <t>美国宪法第十四修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第十五修正案</t>
+    <t>美国宪法第十五修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%80%83%E7%89%B9%E8%A8%B4%E6%A1%91%E7%A6%8F%E5%BE%B7%E6%A1%88</t>
   </si>
   <si>
-    <t>史考特訴桑福德案</t>
+    <t>史考特诉桑福德案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1964%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -1205,19 +1196,19 @@
     <t>https://zh.wikipedia.org/wiki/1964%E5%B9%B4%E6%B0%91%E6%AC%8A%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1964年民權法案</t>
+    <t>1964年民权法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%88%A9%C2%B7%E9%AB%98%E8%8F%AF%E5%BE%B7</t>
   </si>
   <si>
-    <t>貝利·高華德</t>
+    <t>贝利·高华德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>政治權力</t>
+    <t>政治权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%97%A5</t>
@@ -1241,19 +1232,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AB%BE%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F</t>
   </si>
   <si>
-    <t>富蘭克林·德拉諾·羅斯福</t>
+    <t>富兰克林·德拉诺·罗斯福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E6%B2%B3%E8%B0%B7%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>田納西河谷管理局</t>
+    <t>田纳西河谷管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>鐵路</t>
+    <t>铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E8%B7%AF</t>
@@ -1265,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>美國民權運動</t>
+    <t>美国民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/3K%E5%85%9A</t>
@@ -1277,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%B2%E5%A0%A1%E4%B9%8B%E5%BD%B9</t>
   </si>
   <si>
-    <t>蓋茲堡之役</t>
+    <t>盖兹堡之役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%8D%A1%E8%8E%AB%E5%8A%A0%E6%88%98%E5%BD%B9</t>
@@ -1307,13 +1298,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%A2%E7%91%9F%E5%8B%92%E6%96%AF%E7%B6%AD%E7%88%BE%E4%B9%8B%E5%BD%B9</t>
   </si>
   <si>
-    <t>錢瑟勒斯維爾之役</t>
+    <t>钱瑟勒斯维尔之役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%B3%A2%E7%89%B9%E6%96%AF%E5%87%A1%E5%B0%BC%E4%BA%9E%E9%83%A1%E5%BA%9C%E4%B9%8B%E5%BD%B9</t>
   </si>
   <si>
-    <t>史波特斯凡尼亞郡府之役</t>
+    <t>史波特斯凡尼亚郡府之役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%BD%E5%8E%9F%E4%B9%8B%E5%BD%B9</t>
@@ -1337,43 +1328,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E9%97%9C%E6%A7%8D</t>
   </si>
   <si>
-    <t>機關槍</t>
+    <t>机关枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%96%AF%E5%AF%86%E7%A2%BC</t>
   </si>
   <si>
-    <t>摩斯密碼</t>
+    <t>摩斯密码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A0%B1</t>
   </si>
   <si>
-    <t>電報</t>
+    <t>电报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%BB%8A</t>
   </si>
   <si>
-    <t>火車</t>
+    <t>火车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%82%E4%B8%96%E4%BD%B3%E4%BA%BA_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>亂世佳人 (電影)</t>
+    <t>乱世佳人 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%E6%9C%80%E4%BD%B3%E5%BD%B1%E7%89%87%E7%8D%8E</t>
   </si>
   <si>
-    <t>奧斯卡最佳影片獎</t>
+    <t>奥斯卡最佳影片奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%E6%9C%80%E4%BD%B3%E5%A5%B3%E4%B8%BB%E8%A7%92%E7%8D%8E</t>
   </si>
   <si>
-    <t>奧斯卡最佳女主角獎</t>
+    <t>奥斯卡最佳女主角奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E5%B1%B1</t>
@@ -1397,25 +1388,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%A6%AE%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>光榮戰役</t>
+    <t>光荣战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%87%E9%AD%94%E9%AC%BC%E5%85%B1%E9%A8%8E</t>
   </si>
   <si>
-    <t>與魔鬼共騎</t>
+    <t>与魔鬼共骑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E4%B8%89%E9%8F%A2%E5%AE%A2</t>
   </si>
   <si>
-    <t>黃金三鏢客</t>
+    <t>黄金三镖客</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%80%8B%E5%9C%8B%E5%AE%B6%E7%9A%84%E8%AA%95%E7%94%9F</t>
   </si>
   <si>
-    <t>一個國家的誕生</t>
+    <t>一个国家的诞生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B8%E8%A1%80%E9%AC%BC%E7%8C%8E%E4%BA%BA%E6%9E%97%E8%82%AF_(%E7%94%B5%E5%BD%B1)</t>
@@ -1433,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%E6%9C%80%E4%BD%B3%E7%94%B7%E4%B8%BB%E8%A7%92%E7%8D%8E</t>
   </si>
   <si>
-    <t>奧斯卡最佳男主角獎</t>
+    <t>奥斯卡最佳男主角奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%BC%E6%96%AF%E7%9A%84%E8%87%AA%E7%94%B1%E5%9B%BD%E5%BA%A6</t>
@@ -1445,13 +1436,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%84</t>
   </si>
   <si>
-    <t>飄</t>
+    <t>飘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%A9%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>小婦人</t>
+    <t>小妇人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%8A%E5%A6%B9</t>
@@ -1469,13 +1460,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界戰爭列表</t>
+    <t>世界战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0%E9%87%8D%E6%BC%94</t>
   </si>
   <si>
-    <t>美國內戰重演</t>
+    <t>美国内战重演</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B9%9D%E5%9B%BD</t>
@@ -1493,9 +1484,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
-    <t>美国历史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
@@ -1505,7 +1493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -1529,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
@@ -1565,7 +1553,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -1577,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -1607,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -1619,9 +1607,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
@@ -1631,9 +1616,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
@@ -1643,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -1655,9 +1637,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
   </si>
   <si>
-    <t>美国国会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
@@ -1667,9 +1646,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
@@ -1679,15 +1655,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
-    <t>美国总统</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
@@ -1709,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
@@ -1745,13 +1718,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -1763,13 +1736,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -1817,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -1829,7 +1802,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -1865,7 +1838,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -1877,7 +1850,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -1913,7 +1886,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -1925,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -1937,9 +1910,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
   </si>
   <si>
@@ -1949,13 +1919,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -1997,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -2009,13 +1979,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -2027,7 +1997,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -2039,7 +2009,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -2051,13 +2021,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -2081,7 +2051,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -2153,15 +2123,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -2171,7 +2138,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -2225,7 +2192,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -2261,7 +2228,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -2279,7 +2246,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -2315,19 +2282,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -2339,7 +2306,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -2357,13 +2324,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%8F%B8%E8%B5%B7%E4%B9%89</t>
@@ -2387,7 +2354,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>猶他戰爭</t>
+    <t>犹他战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%85%8B%E6%96%AF-%E5%B7%B4%E5%85%8B%E6%96%AF%E7%89%B9%E6%88%98%E4%BA%89</t>
@@ -2399,7 +2366,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%B0%E7%AC%AC%E5%AE%89%E6%88%98%E4%BA%89</t>
@@ -2423,9 +2390,6 @@
     <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>1812年战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B7%B4%E5%B7%B4%E5%88%A9%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -2435,7 +2399,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E9%B8%A6%E7%89%87%E6%88%98%E4%BA%89</t>
@@ -2447,13 +2411,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>美國福爾摩沙遠征</t>
+    <t>美国福尔摩沙远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%9C%AA%E6%B4%8B%E6%93%BE</t>
   </si>
   <si>
-    <t>辛未洋擾</t>
+    <t>辛未洋扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
@@ -2477,7 +2441,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E6%B5%B7%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國佔領海地</t>
+    <t>美国佔领海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -2501,13 +2465,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%86%85%E6%88%98</t>
@@ -2531,25 +2495,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A5%E4%BE%B5%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>美國入侵巴拿馬</t>
+    <t>美国入侵巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>海灣戰爭</t>
+    <t>海湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E6%B2%99%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>摩加迪沙之戰</t>
+    <t>摩加迪沙之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯尼亞戰爭</t>
+    <t>波斯尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E4%B9%8B%E7%8B%90%E8%A1%8C%E5%8A%A8</t>
@@ -2561,7 +2525,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>科索沃戰爭</t>
+    <t>科索沃战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6%E8%BD%B0%E7%82%B8%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
@@ -2573,7 +2537,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%98%E4%BA%89</t>
@@ -2597,37 +2561,34 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
+    <t>叙利亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%A8%E6%95%98%E5%88%A9%E4%BA%9E%E9%87%9D%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>2014年在敘利亞針對伊斯蘭國的空襲</t>
+    <t>2014年在叙利亚针对伊斯兰国的空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E8%BB%8D%E4%BA%8B%E6%89%93%E6%93%8A</t>
   </si>
   <si>
-    <t>對伊斯蘭國的軍事打擊</t>
+    <t>对伊斯兰国的军事打击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國戰爭列表</t>
+    <t>美国战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2651,7 +2612,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
@@ -3843,7 +3804,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -3869,10 +3830,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -3898,10 +3859,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3927,10 +3888,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -3956,10 +3917,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3985,10 +3946,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -4014,10 +3975,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -4043,10 +4004,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -4072,10 +4033,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -4101,10 +4062,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>5</v>
@@ -4130,10 +4091,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>8</v>
@@ -4159,10 +4120,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>7</v>
@@ -4188,10 +4149,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4217,10 +4178,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4246,10 +4207,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -4275,10 +4236,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -4304,10 +4265,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -4333,10 +4294,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4362,10 +4323,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4391,10 +4352,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4420,10 +4381,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -4449,10 +4410,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
@@ -4478,10 +4439,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -4507,10 +4468,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>28</v>
@@ -4536,10 +4497,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -4565,10 +4526,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -4594,10 +4555,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -4623,10 +4584,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4652,10 +4613,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -4681,10 +4642,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4710,10 +4671,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4739,10 +4700,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4768,10 +4729,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4797,10 +4758,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4826,10 +4787,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4855,10 +4816,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4884,10 +4845,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4913,10 +4874,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>10</v>
@@ -4942,10 +4903,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -4971,10 +4932,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -5000,10 +4961,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5029,10 +4990,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -5058,10 +5019,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5087,10 +5048,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5116,10 +5077,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5145,10 +5106,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -5174,10 +5135,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -5203,10 +5164,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -5261,10 +5222,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5290,10 +5251,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5319,10 +5280,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5348,10 +5309,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5377,10 +5338,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>9</v>
@@ -5406,10 +5367,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5435,10 +5396,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5467,7 +5428,7 @@
         <v>57</v>
       </c>
       <c r="F85" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -5493,10 +5454,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>7</v>
@@ -5522,10 +5483,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5551,10 +5512,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -5580,10 +5541,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5609,10 +5570,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>5</v>
@@ -5638,10 +5599,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5667,10 +5628,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
@@ -5696,10 +5657,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5725,10 +5686,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5754,10 +5715,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>8</v>
@@ -5783,10 +5744,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5812,10 +5773,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -5841,10 +5802,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -5870,10 +5831,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>6</v>
@@ -5899,10 +5860,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>7</v>
@@ -5928,10 +5889,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F101" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5957,10 +5918,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5986,10 +5947,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>19</v>
@@ -6015,10 +5976,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6044,10 +6005,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6073,10 +6034,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>6</v>
@@ -6102,10 +6063,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -6131,10 +6092,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>6</v>
@@ -6160,10 +6121,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>11</v>
@@ -6189,10 +6150,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>48</v>
@@ -6218,10 +6179,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -6247,10 +6208,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -6276,10 +6237,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6305,10 +6266,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>15</v>
@@ -6334,10 +6295,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6363,10 +6324,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6392,10 +6353,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6421,10 +6382,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>7</v>
@@ -6450,10 +6411,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6479,10 +6440,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>6</v>
@@ -6508,10 +6469,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6537,10 +6498,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6566,10 +6527,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>5</v>
@@ -6595,10 +6556,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6624,10 +6585,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6653,10 +6614,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6682,10 +6643,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6711,10 +6672,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6740,10 +6701,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6769,10 +6730,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6798,10 +6759,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -6827,10 +6788,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6856,10 +6817,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>4</v>
@@ -6885,10 +6846,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6914,10 +6875,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6943,10 +6904,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6972,10 +6933,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>7</v>
@@ -7001,10 +6962,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7030,10 +6991,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -7059,10 +7020,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>7</v>
@@ -7088,10 +7049,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7117,10 +7078,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -7146,10 +7107,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7175,10 +7136,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -7204,10 +7165,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -7233,10 +7194,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7262,10 +7223,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7291,10 +7252,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7320,10 +7281,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7349,10 +7310,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7378,10 +7339,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -7407,10 +7368,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7436,10 +7397,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>5</v>
@@ -7465,10 +7426,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7494,10 +7455,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7523,10 +7484,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>74</v>
+      </c>
+      <c r="F156" t="s">
         <v>75</v>
-      </c>
-      <c r="F156" t="s">
-        <v>76</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7552,10 +7513,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7581,10 +7542,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7610,10 +7571,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7639,10 +7600,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7668,10 +7629,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7697,10 +7658,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7726,10 +7687,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7755,10 +7716,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G164" t="n">
         <v>8</v>
@@ -7784,10 +7745,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7813,10 +7774,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7842,10 +7803,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7871,10 +7832,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -7900,10 +7861,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7929,10 +7890,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7958,10 +7919,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7987,10 +7948,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8016,10 +7977,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8045,10 +8006,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8074,10 +8035,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8103,10 +8064,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8161,10 +8122,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8190,10 +8151,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8219,10 +8180,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8248,10 +8209,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8277,10 +8238,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8306,10 +8267,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8335,10 +8296,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8364,10 +8325,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8393,10 +8354,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8422,10 +8383,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8451,10 +8412,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8480,10 +8441,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8509,10 +8470,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8538,10 +8499,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8567,10 +8528,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8596,10 +8557,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8625,10 +8586,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8654,10 +8615,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8683,10 +8644,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8712,10 +8673,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8741,10 +8702,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8770,10 +8731,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8799,10 +8760,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8828,10 +8789,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8857,10 +8818,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8886,10 +8847,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8915,10 +8876,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8944,10 +8905,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8973,10 +8934,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F206" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9002,10 +8963,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9031,10 +8992,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F208" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9060,10 +9021,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9089,10 +9050,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9118,10 +9079,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9147,10 +9108,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -9176,10 +9137,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -9205,10 +9166,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9234,10 +9195,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9263,10 +9224,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9292,10 +9253,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9321,10 +9282,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9350,10 +9311,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9379,10 +9340,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9408,10 +9369,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9437,10 +9398,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F222" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9466,10 +9427,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9495,10 +9456,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F224" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G224" t="n">
         <v>4</v>
@@ -9524,10 +9485,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9553,10 +9514,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9582,10 +9543,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9611,10 +9572,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9640,10 +9601,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9669,10 +9630,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9698,10 +9659,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9727,10 +9688,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9756,10 +9717,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9785,10 +9746,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9814,10 +9775,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9843,10 +9804,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9872,10 +9833,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9901,10 +9862,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9930,10 +9891,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9959,10 +9920,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9988,10 +9949,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10017,10 +9978,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10046,10 +10007,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10075,10 +10036,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10104,10 +10065,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10133,10 +10094,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10162,10 +10123,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10191,10 +10152,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10220,10 +10181,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10249,10 +10210,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10278,10 +10239,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10307,10 +10268,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10336,10 +10297,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G253" t="n">
         <v>8</v>
@@ -10365,10 +10326,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>54</v>
       </c>
       <c r="G254" t="n">
         <v>3</v>
@@ -10394,10 +10355,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10423,10 +10384,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10452,10 +10413,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10481,10 +10442,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10510,10 +10471,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10539,10 +10500,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10568,10 +10529,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10597,10 +10558,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10626,10 +10587,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10655,10 +10616,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10684,10 +10645,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10713,10 +10674,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10742,10 +10703,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10771,10 +10732,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10800,10 +10761,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10829,10 +10790,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10858,10 +10819,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10887,10 +10848,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G272" t="n">
         <v>4</v>
@@ -10916,10 +10877,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10945,10 +10906,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10974,10 +10935,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>215</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11003,10 +10964,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F276" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G276" t="n">
         <v>4</v>
@@ -11032,10 +10993,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F277" t="s">
-        <v>538</v>
+        <v>105</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11061,10 +11022,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11090,10 +11051,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11119,10 +11080,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11148,10 +11109,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>75</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -11177,10 +11138,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11206,10 +11167,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>145</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11235,10 +11196,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11264,10 +11225,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11293,10 +11254,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>133</v>
       </c>
       <c r="G286" t="n">
         <v>5</v>
@@ -11322,10 +11283,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11351,10 +11312,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11380,10 +11341,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11409,10 +11370,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11438,10 +11399,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11467,10 +11428,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11496,10 +11457,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11525,10 +11486,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11554,10 +11515,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11583,10 +11544,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F296" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G296" t="n">
         <v>3</v>
@@ -11612,10 +11573,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F297" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11641,10 +11602,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F298" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11670,10 +11631,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11699,10 +11660,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F300" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11728,10 +11689,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F301" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11757,10 +11718,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F302" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11786,10 +11747,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11815,10 +11776,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11844,10 +11805,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F305" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11873,10 +11834,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F306" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11902,10 +11863,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F307" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11931,10 +11892,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F308" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11960,10 +11921,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F309" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G309" t="n">
         <v>14</v>
@@ -11989,10 +11950,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F310" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G310" t="n">
         <v>3</v>
@@ -12018,10 +11979,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F311" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12047,10 +12008,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F312" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12076,10 +12037,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F313" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12105,10 +12066,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F314" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12134,10 +12095,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F315" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12163,10 +12124,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F316" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12192,10 +12153,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F317" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12221,10 +12182,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F318" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12250,10 +12211,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F319" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12279,10 +12240,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F320" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12308,10 +12269,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F321" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G321" t="n">
         <v>3</v>
@@ -12337,10 +12298,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F322" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12366,10 +12327,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F323" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12395,10 +12356,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F324" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12424,10 +12385,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F325" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12453,10 +12414,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F326" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G326" t="n">
         <v>4</v>
@@ -12482,10 +12443,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F327" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12511,10 +12472,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F328" t="s">
-        <v>640</v>
+        <v>14</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
@@ -12540,10 +12501,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>92</v>
+      </c>
+      <c r="F329" t="s">
         <v>93</v>
-      </c>
-      <c r="F329" t="s">
-        <v>94</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12569,10 +12530,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12598,10 +12559,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G331" t="n">
         <v>5</v>
@@ -12627,10 +12588,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12656,10 +12617,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="G333" t="n">
         <v>3</v>
@@ -12685,10 +12646,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12714,10 +12675,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12743,10 +12704,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F336" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G336" t="n">
         <v>12</v>
@@ -12772,10 +12733,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F337" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G337" t="n">
         <v>3</v>
@@ -12801,10 +12762,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F338" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12830,10 +12791,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F339" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12859,10 +12820,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F340" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12888,10 +12849,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="F341" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12917,10 +12878,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F342" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12946,10 +12907,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="F343" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12975,10 +12936,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F344" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13004,10 +12965,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F345" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13033,10 +12994,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -13062,10 +13023,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13091,10 +13052,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13120,10 +13081,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13149,10 +13110,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13178,10 +13139,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13207,10 +13168,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13236,10 +13197,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F353" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G353" t="n">
         <v>4</v>
@@ -13265,10 +13226,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F354" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13294,10 +13255,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F355" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G355" t="n">
         <v>3</v>
@@ -13323,10 +13284,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F356" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13352,10 +13313,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13381,10 +13342,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F358" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13410,10 +13371,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13439,10 +13400,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13468,10 +13429,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F361" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="G361" t="n">
         <v>4</v>
@@ -13497,10 +13458,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F362" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G362" t="n">
         <v>3</v>
@@ -13526,10 +13487,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F363" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13555,10 +13516,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -13584,10 +13545,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13613,10 +13574,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>650</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13642,10 +13603,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13671,10 +13632,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13700,10 +13661,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13729,10 +13690,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13758,10 +13719,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -13787,10 +13748,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="F372" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13816,10 +13777,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13845,10 +13806,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13874,10 +13835,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="F375" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13903,10 +13864,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="F376" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="G376" t="n">
         <v>3</v>
@@ -13932,10 +13893,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="F377" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13961,10 +13922,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="F378" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13990,10 +13951,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="F379" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="G379" t="n">
         <v>4</v>
@@ -14019,10 +13980,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F380" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14048,10 +14009,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="F381" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14077,10 +14038,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="F382" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14106,10 +14067,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="F383" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14135,10 +14096,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="F384" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14164,10 +14125,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="F385" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14193,10 +14154,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="F386" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14222,10 +14183,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="F387" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -14251,10 +14212,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="F388" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14280,10 +14241,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="F389" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14309,10 +14270,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="F390" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14338,10 +14299,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="F391" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14367,10 +14328,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="F392" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14396,10 +14357,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F393" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14425,10 +14386,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="F394" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14454,10 +14415,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="F395" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -14483,10 +14444,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="F396" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14512,10 +14473,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="F397" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14541,10 +14502,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="F398" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14570,10 +14531,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="F399" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="G399" t="n">
         <v>44</v>
@@ -14599,10 +14560,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="F400" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="G400" t="n">
         <v>58</v>
@@ -14628,10 +14589,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="F401" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14657,10 +14618,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="F402" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14686,10 +14647,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="F403" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14715,10 +14676,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F404" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14744,10 +14705,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="F405" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14773,10 +14734,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="F406" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14802,10 +14763,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="F407" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -14831,10 +14792,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="F408" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14860,10 +14821,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="F409" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14889,10 +14850,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="F410" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14918,10 +14879,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="F411" t="s">
-        <v>802</v>
+        <v>73</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14947,10 +14908,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="F412" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14976,10 +14937,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="F413" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15005,10 +14966,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="F414" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15034,10 +14995,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="F415" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15063,10 +15024,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="F416" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15092,10 +15053,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="F417" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15121,10 +15082,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="F418" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15150,10 +15111,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="F419" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15179,10 +15140,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="F420" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15208,10 +15169,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="F421" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -15237,10 +15198,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="F422" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15266,10 +15227,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="F423" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="G423" t="n">
         <v>2</v>
@@ -15295,10 +15256,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="F424" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15324,10 +15285,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="F425" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15353,10 +15314,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="F426" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15382,10 +15343,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="F427" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15411,10 +15372,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="F428" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15440,10 +15401,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="F429" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15469,10 +15430,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="F430" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15498,10 +15459,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="F431" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15527,10 +15488,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="F432" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15556,10 +15517,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="F433" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15585,10 +15546,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="F434" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15614,10 +15575,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="F435" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15643,10 +15604,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="F436" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15672,10 +15633,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="F437" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15701,10 +15662,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="F438" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15730,10 +15691,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="F439" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15759,10 +15720,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="F440" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15788,10 +15749,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="F441" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15817,10 +15778,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="F442" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15846,10 +15807,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="F443" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15875,10 +15836,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="F444" t="s">
-        <v>868</v>
+        <v>524</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15904,10 +15865,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="F445" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="G445" t="n">
         <v>3</v>
@@ -15933,10 +15894,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="F446" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15962,10 +15923,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="F447" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15991,10 +15952,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="F448" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16020,10 +15981,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="F449" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16049,10 +16010,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="F450" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="G450" t="n">
         <v>14</v>
@@ -16078,10 +16039,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="F451" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>

--- a/xlsx/美国内战_intext.xlsx
+++ b/xlsx/美国内战_intext.xlsx
@@ -29,7 +29,7 @@
     <t>宾夕凡尼亚州</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国内战</t>
+    <t>体育运动_体育运动_美式足球_美国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%A8%E5%A0%A1%E4%B9%8B%E5%BD%B9</t>
